--- a/data/long_dif/P50-Estudios-long_dif.xlsx
+++ b/data/long_dif/P50-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>30,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 49,7</t>
+          <t>18,31; 39,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 43,58</t>
+          <t>21,92; 55,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 34,03</t>
+          <t>21,19; 35,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,37; 35,08</t>
+          <t>25,15; 61,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,14; 35,55</t>
+          <t>24,15; 42,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 34,61</t>
+          <t>21,42; 37,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 39,84</t>
+          <t>22,83; 33,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 35,44</t>
+          <t>17,27; 33,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,72; 32,49</t>
+          <t>23,75; 37,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 40,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,78; 32,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 46,02</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,46%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,43; 47,55</t>
+          <t>26,69; 49,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 44,38</t>
+          <t>25,65; 46,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,82; 44,0</t>
+          <t>27,32; 42,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,84; 49,32</t>
+          <t>22,61; 46,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 44,61</t>
+          <t>28,07; 46,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,41; 48,35</t>
+          <t>29,49; 45,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 45,37</t>
+          <t>36,48; 48,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 42,16</t>
+          <t>34,05; 50,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,5; 43,9</t>
+          <t>30,01; 45,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30,52; 44,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34,52; 44,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,81; 46,61</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>31,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 38,84</t>
+          <t>21,83; 51,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,56; 52,13</t>
+          <t>20,04; 39,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 47,41</t>
+          <t>28,36; 49,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 36,08</t>
+          <t>15,42; 35,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,53; 41,6</t>
+          <t>21,86; 40,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 34,92</t>
+          <t>26,65; 42,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,45; 35,16</t>
+          <t>24,31; 35,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 42,93</t>
+          <t>25,54; 43,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 38,53</t>
+          <t>24,84; 42,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,32; 38,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 39,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 36,87</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 40,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 30,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 33,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,31; 35,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 27,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 34,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 36,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 28,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 32,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>34,22%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,59; 47,36</t>
+          <t>28,59; 43,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,3; 49,67</t>
+          <t>19,8; 31,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,35; 54,32</t>
+          <t>23,63; 33,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,18; 51,57</t>
+          <t>25,06; 39,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,45; 50,19</t>
+          <t>27,31; 37,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,17; 46,37</t>
+          <t>19,37; 29,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,83; 48,14</t>
+          <t>26,01; 33,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,96; 48,43</t>
+          <t>23,29; 33,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,18; 49,29</t>
+          <t>30,14; 39,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 28,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 32,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 34,75</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>39,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>44,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 30,22</t>
+          <t>37,38; 52,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,41; 36,52</t>
+          <t>36,3; 50,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,23; 27,35</t>
+          <t>43,68; 54,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 25,67</t>
+          <t>32,28; 45,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,98; 36,47</t>
+          <t>39,39; 50,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,9; 32,22</t>
+          <t>38,68; 49,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 26,42</t>
+          <t>37,81; 46,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,6; 34,63</t>
+          <t>32,83; 44,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,57</t>
+          <t>39,9; 49,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,99; 48,1</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42,38; 48,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,66; 42,95</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,88; 32,74</t>
+          <t>14,45; 24,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 27,65</t>
+          <t>25,71; 39,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,63</t>
+          <t>18,69; 28,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,59; 33,86</t>
+          <t>23,61; 36,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,71; 27,91</t>
+          <t>18,08; 27,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,62; 28,32</t>
+          <t>27,32; 37,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,15; 31,47</t>
+          <t>23,98; 32,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,91</t>
+          <t>27,9; 39,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,32; 27,12</t>
+          <t>17,42; 24,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28,25; 36,53</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 28,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 35,22</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>53,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,91; 60,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,64; 60,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,26; 62,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,92; 56,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,31; 54,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,98; 63,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,53; 56,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,86; 55,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>54,54; 61,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,11</t>
+          <t>18,83; 31,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,83; 31,82</t>
+          <t>17,63; 30,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 24,22</t>
+          <t>18,51; 29,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,16; 24,73</t>
+          <t>21,15; 35,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,33; 32,91</t>
+          <t>22,76; 35,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,17; 21,03</t>
+          <t>18,93; 28,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,95</t>
+          <t>19,55; 27,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,36; 30,3</t>
+          <t>17,77; 26,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,54; 20,93</t>
+          <t>22,31; 31,18</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 27,37</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>20,49; 26,62</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 29,24</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>52,84%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>51,48%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>58,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>46,4%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,23; 37,25</t>
+          <t>44,75; 60,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,34; 28,56</t>
+          <t>47,71; 61,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,49; 29,71</t>
+          <t>51,3; 62,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,07</t>
+          <t>38,94; 52,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,25</t>
+          <t>46,68; 59,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,18; 30,01</t>
+          <t>42,64; 54,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,74; 33,84</t>
+          <t>54,73; 64,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,12; 26,82</t>
+          <t>41,68; 52,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,2; 29,18</t>
+          <t>47,82; 58,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>46,71; 56,0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>54,84; 62,33</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>42,03; 50,71</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>39,59; 47,75</t>
+          <t>17,13; 29,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,62; 50,01</t>
+          <t>16,48; 29,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,29; 52,22</t>
+          <t>15,73; 24,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,21</t>
+          <t>21,25; 32,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>41,17; 47,93</t>
+          <t>13,84; 24,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,64; 50,58</t>
+          <t>23,63; 34,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>43,07; 48,07</t>
+          <t>13,77; 20,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42,37; 47,58</t>
+          <t>25,88; 35,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,92; 50,53</t>
+          <t>16,68; 24,4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 29,73</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 21,32</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,03; 32,58</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>25,84; 34,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,14; 28,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>28,36; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,03; 27,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>27,94; 33,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,64; 27,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>29,3; 40,37</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 29,85</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 33,92</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 31,21</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>28,1; 35,88</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 28,26</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>42,63%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>42,97%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>47,8%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44,24%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>37,35; 48,55</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>34,68; 51,89</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>42,81; 52,89</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>37,77; 53,62</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>40,89; 48,86</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,57; 50,45</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 29,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>26,32; 45,07</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,38; 27,99</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>23,24; 37,79</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 27,01</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 39,01</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>32,24%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>31,24%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>29,08; 36,31</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 29,55</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 30,01</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>27,0; 37,73</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 33,04</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>21,48; 27,37</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 29,89</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>22,15; 28,37</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>28,96; 33,72</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>22,41; 27,28</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 28,98</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>25,34; 32,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>44,82%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>45,7%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>48,87%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>47,75%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>42,25%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>45,86%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>45,05%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>48,3%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>41,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>40,99; 48,37</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>41,45; 49,85</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>45,35; 52,24</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>35,96; 45,25</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 50,05</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>41,28; 47,9</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 50,42</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>38,39; 45,68</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>43,37; 48,2</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 47,44</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>45,95; 50,72</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>38,56; 44,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>31,17%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>20,09; 27,13</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 33,69</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 28,95</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>24,04; 31,88</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>20,53; 25,56</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>28,25; 34,39</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 27,41</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>28,96; 36,22</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>20,81; 25,08</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>28,03; 33,01</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 27,0</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 32,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
